--- a/assets/img/grid_for_stochastic.xlsx
+++ b/assets/img/grid_for_stochastic.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1600" windowWidth="36360" windowHeight="20000" tabRatio="500"/>
+    <workbookView xWindow="12880" yWindow="3260" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$15</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -65,17 +68,17 @@
     <t>G2</t>
   </si>
   <si>
-    <t>timeCost  =  -0.1 (or something similar)</t>
-  </si>
-  <si>
     <t>uniformDraw(_.range(1,11))</t>
+  </si>
+  <si>
+    <t>timeCost  =  -0.1 (or whatever gives the results below)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +114,12 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,13 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -188,6 +195,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +476,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,153 +487,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="10" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4">
         <v>10</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2">
+        <v>8</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3">
-        <v>8</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="2"/>
-      <c r="I4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3">
-        <v>6</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I10" s="8">
         <v>7</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-      <c r="I8" s="10">
-        <v>2</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I10" s="10">
-        <v>7</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -641,7 +649,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
@@ -649,14 +657,17 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="12"/>
       <c r="C14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="9"/>
+      <c r="B15" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>